--- a/data/bis.xlsx
+++ b/data/bis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PriyaGold_Mumbai_QPS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05B807-3AF5-43C1-9145-A6E5614BC8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC3BA5-7161-4CA4-868A-35FEFDA37558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DB" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$1141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$L$1141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DB!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="1505">
   <si>
     <t>State</t>
   </si>
@@ -3671,6 +3671,9 @@
   </si>
   <si>
     <t>AdminSubhash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J K BROS </t>
   </si>
   <si>
     <t>SIDDHIVINAYAK ENTERPRISES</t>
@@ -5045,7 +5048,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5096,7 +5099,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5900,7 +5903,7 @@
         <v>66</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H22" s="10">
         <v>60</v>
@@ -5939,7 +5942,7 @@
         <v>67</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H23" s="10">
         <v>60</v>
@@ -5978,7 +5981,7 @@
         <v>68</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H24" s="10">
         <v>60</v>
@@ -6017,7 +6020,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H25" s="10">
         <v>60</v>
@@ -6056,7 +6059,7 @@
         <v>70</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -6095,7 +6098,7 @@
         <v>71</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H27" s="10">
         <v>60</v>
@@ -6134,7 +6137,7 @@
         <v>72</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H28" s="10">
         <v>60</v>
@@ -6992,7 +6995,7 @@
         <v>109</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H50" s="10">
         <v>50</v>
@@ -7031,7 +7034,7 @@
         <v>110</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H51" s="10">
         <v>50</v>
@@ -8188,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D81" s="11">
         <f>_xlfn.XLOOKUP(E81,DB!E:E,DB!C:C,)</f>
@@ -8227,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D82" s="11">
         <f>_xlfn.XLOOKUP(E82,DB!E:E,DB!C:C,)</f>
@@ -8266,7 +8269,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D83" s="11">
         <f>_xlfn.XLOOKUP(E83,DB!E:E,DB!C:C,)</f>
@@ -8305,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D84" s="11">
         <f>_xlfn.XLOOKUP(E84,DB!E:E,DB!C:C,)</f>
@@ -10996,7 +10999,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D153" s="11">
         <f>_xlfn.XLOOKUP(E153,DB!E:E,DB!C:C,)</f>
@@ -11035,7 +11038,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D154" s="11">
         <f>_xlfn.XLOOKUP(E154,DB!E:E,DB!C:C,)</f>
@@ -14870,7 +14873,7 @@
         <v>436</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H252" s="10">
         <v>24</v>
@@ -16651,7 +16654,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D298" s="11">
         <f>_xlfn.XLOOKUP(E298,DB!E:E,DB!C:C,)</f>
@@ -16690,7 +16693,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D299" s="11">
         <f>_xlfn.XLOOKUP(E299,DB!E:E,DB!C:C,)</f>
@@ -16729,7 +16732,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D300" s="11">
         <f>_xlfn.XLOOKUP(E300,DB!E:E,DB!C:C,)</f>
@@ -16768,7 +16771,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D301" s="11">
         <f>_xlfn.XLOOKUP(E301,DB!E:E,DB!C:C,)</f>
@@ -16807,7 +16810,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D302" s="11">
         <f>_xlfn.XLOOKUP(E302,DB!E:E,DB!C:C,)</f>
@@ -22267,7 +22270,7 @@
         <v>441</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D442" s="11">
         <f>_xlfn.XLOOKUP(E442,DB!E:E,DB!C:C,)</f>
@@ -33343,7 +33346,7 @@
         <v>725</v>
       </c>
       <c r="C726" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D726" s="11">
         <f>_xlfn.XLOOKUP(E726,DB!E:E,DB!C:C,)</f>
@@ -40049,20 +40052,20 @@
         <v>897</v>
       </c>
       <c r="C898" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D898" s="11">
         <f>_xlfn.XLOOKUP(E898,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E898" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="G898" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H898" s="14">
         <v>0</v>
@@ -40088,20 +40091,20 @@
         <v>898</v>
       </c>
       <c r="C899" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D899" s="11">
         <f>_xlfn.XLOOKUP(E899,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E899" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F899" s="14" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G899" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H899" s="14">
         <v>0</v>
@@ -40127,20 +40130,20 @@
         <v>899</v>
       </c>
       <c r="C900" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D900" s="11">
         <f>_xlfn.XLOOKUP(E900,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E900" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G900" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H900" s="14">
         <v>0</v>
@@ -40166,20 +40169,20 @@
         <v>900</v>
       </c>
       <c r="C901" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D901" s="11">
         <f>_xlfn.XLOOKUP(E901,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E901" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F901" s="14" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="G901" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H901" s="14">
         <v>0</v>
@@ -40205,20 +40208,20 @@
         <v>901</v>
       </c>
       <c r="C902" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D902" s="11">
         <f>_xlfn.XLOOKUP(E902,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E902" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G902" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H902" s="14">
         <v>0</v>
@@ -40244,20 +40247,20 @@
         <v>902</v>
       </c>
       <c r="C903" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D903" s="11">
         <f>_xlfn.XLOOKUP(E903,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E903" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F903" s="14" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G903" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H903" s="14">
         <v>0</v>
@@ -40283,20 +40286,20 @@
         <v>903</v>
       </c>
       <c r="C904" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D904" s="11">
         <f>_xlfn.XLOOKUP(E904,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E904" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="G904" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H904" s="14">
         <v>0</v>
@@ -40322,20 +40325,20 @@
         <v>904</v>
       </c>
       <c r="C905" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D905" s="11">
         <f>_xlfn.XLOOKUP(E905,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E905" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F905" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G905" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H905" s="14">
         <v>0</v>
@@ -40361,20 +40364,20 @@
         <v>905</v>
       </c>
       <c r="C906" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D906" s="11">
         <f>_xlfn.XLOOKUP(E906,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E906" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G906" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H906" s="14">
         <v>0</v>
@@ -40400,20 +40403,20 @@
         <v>906</v>
       </c>
       <c r="C907" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D907" s="11">
         <f>_xlfn.XLOOKUP(E907,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E907" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F907" s="14" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G907" s="14" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H907" s="14">
         <v>0</v>
@@ -40439,20 +40442,20 @@
         <v>907</v>
       </c>
       <c r="C908" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D908" s="11">
         <f>_xlfn.XLOOKUP(E908,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E908" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G908" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H908" s="14">
         <v>0</v>
@@ -40478,20 +40481,20 @@
         <v>908</v>
       </c>
       <c r="C909" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D909" s="11">
         <f>_xlfn.XLOOKUP(E909,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E909" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F909" s="14" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G909" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H909" s="14">
         <v>0</v>
@@ -40517,20 +40520,20 @@
         <v>909</v>
       </c>
       <c r="C910" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D910" s="11">
         <f>_xlfn.XLOOKUP(E910,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E910" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G910" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H910" s="14">
         <v>0</v>
@@ -40556,20 +40559,20 @@
         <v>910</v>
       </c>
       <c r="C911" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D911" s="11">
         <f>_xlfn.XLOOKUP(E911,DB!E:E,DB!C:C,)</f>
         <v>64</v>
       </c>
       <c r="E911" s="14" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F911" s="14" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="G911" s="14" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H911" s="14">
         <v>0</v>
@@ -40595,20 +40598,20 @@
         <v>911</v>
       </c>
       <c r="C912" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D912" s="11">
         <f>_xlfn.XLOOKUP(E912,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E912" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="G912" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H912" s="14">
         <v>0</v>
@@ -40634,20 +40637,20 @@
         <v>912</v>
       </c>
       <c r="C913" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D913" s="11">
         <f>_xlfn.XLOOKUP(E913,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E913" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F913" s="14" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G913" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H913" s="14">
         <v>0</v>
@@ -40673,20 +40676,20 @@
         <v>913</v>
       </c>
       <c r="C914" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D914" s="11">
         <f>_xlfn.XLOOKUP(E914,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E914" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="G914" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H914" s="14">
         <v>0</v>
@@ -40712,20 +40715,20 @@
         <v>914</v>
       </c>
       <c r="C915" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D915" s="11">
         <f>_xlfn.XLOOKUP(E915,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E915" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F915" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="G915" s="14" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H915" s="14">
         <v>0</v>
@@ -40751,20 +40754,20 @@
         <v>915</v>
       </c>
       <c r="C916" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D916" s="11">
         <f>_xlfn.XLOOKUP(E916,DB!E:E,DB!C:C,)</f>
         <v>66</v>
       </c>
       <c r="E916" s="14" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G916" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H916" s="14">
         <v>0</v>
@@ -40790,20 +40793,20 @@
         <v>916</v>
       </c>
       <c r="C917" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D917" s="11">
         <f>_xlfn.XLOOKUP(E917,DB!E:E,DB!C:C,)</f>
         <v>66</v>
       </c>
       <c r="E917" s="14" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F917" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G917" s="14" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H917" s="14">
         <v>0</v>
@@ -40829,20 +40832,20 @@
         <v>917</v>
       </c>
       <c r="C918" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D918" s="11">
         <f>_xlfn.XLOOKUP(E918,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E918" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G918" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H918" s="14">
         <v>0</v>
@@ -40868,20 +40871,20 @@
         <v>918</v>
       </c>
       <c r="C919" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D919" s="11">
         <f>_xlfn.XLOOKUP(E919,DB!E:E,DB!C:C,)</f>
         <v>65</v>
       </c>
       <c r="E919" s="14" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F919" s="14" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G919" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H919" s="14">
         <v>0</v>
@@ -40914,13 +40917,13 @@
         <v>52</v>
       </c>
       <c r="E920" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F920" s="15" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G920" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H920" s="15">
         <v>4</v>
@@ -40953,13 +40956,13 @@
         <v>52</v>
       </c>
       <c r="E921" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F921" s="15" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G921" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H921" s="15">
         <v>5</v>
@@ -40995,10 +40998,10 @@
         <v>637</v>
       </c>
       <c r="F922" s="15" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G922" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H922" s="15">
         <v>5</v>
@@ -41031,13 +41034,13 @@
         <v>53</v>
       </c>
       <c r="E923" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F923" s="15" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G923" s="15" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H923" s="15">
         <v>5</v>
@@ -41063,7 +41066,7 @@
         <v>923</v>
       </c>
       <c r="C924" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D924" s="11">
         <f>_xlfn.XLOOKUP(E924,DB!E:E,DB!C:C,)</f>
@@ -41073,10 +41076,10 @@
         <v>161</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G924" s="14" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H924" s="14">
         <v>5</v>
@@ -41102,7 +41105,7 @@
         <v>924</v>
       </c>
       <c r="C925" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D925" s="11">
         <f>_xlfn.XLOOKUP(E925,DB!E:E,DB!C:C,)</f>
@@ -41112,10 +41115,10 @@
         <v>161</v>
       </c>
       <c r="F925" s="14" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G925" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H925" s="14">
         <v>5</v>
@@ -41148,13 +41151,13 @@
         <v>50</v>
       </c>
       <c r="E926" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F926" s="15" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="G926" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H926" s="15">
         <v>6</v>
@@ -41190,10 +41193,10 @@
         <v>28</v>
       </c>
       <c r="F927" s="14" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G927" s="14" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H927" s="14">
         <v>6</v>
@@ -41229,10 +41232,10 @@
         <v>28</v>
       </c>
       <c r="F928" s="14" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G928" s="14" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H928" s="14">
         <v>6</v>
@@ -41265,13 +41268,13 @@
         <v>51</v>
       </c>
       <c r="E929" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F929" s="15" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G929" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H929" s="15">
         <v>7</v>
@@ -41304,13 +41307,13 @@
         <v>51</v>
       </c>
       <c r="E930" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F930" s="15" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G930" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H930" s="15">
         <v>8</v>
@@ -41343,13 +41346,13 @@
         <v>52</v>
       </c>
       <c r="E931" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F931" s="15" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G931" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H931" s="15">
         <v>8</v>
@@ -41385,10 +41388,10 @@
         <v>637</v>
       </c>
       <c r="F932" s="15" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G932" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H932" s="15">
         <v>8</v>
@@ -41424,10 +41427,10 @@
         <v>637</v>
       </c>
       <c r="F933" s="15" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G933" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H933" s="15">
         <v>8</v>
@@ -41460,13 +41463,13 @@
         <v>50</v>
       </c>
       <c r="E934" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F934" s="15" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G934" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H934" s="15">
         <v>9</v>
@@ -41499,13 +41502,13 @@
         <v>50</v>
       </c>
       <c r="E935" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F935" s="15" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G935" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H935" s="15">
         <v>9</v>
@@ -41538,13 +41541,13 @@
         <v>50</v>
       </c>
       <c r="E936" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F936" s="15" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G936" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H936" s="15">
         <v>9</v>
@@ -41577,13 +41580,13 @@
         <v>51</v>
       </c>
       <c r="E937" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F937" s="15" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G937" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H937" s="15">
         <v>9</v>
@@ -41616,13 +41619,13 @@
         <v>52</v>
       </c>
       <c r="E938" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F938" s="15" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="G938" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H938" s="15">
         <v>9</v>
@@ -41658,10 +41661,10 @@
         <v>637</v>
       </c>
       <c r="F939" s="15" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G939" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H939" s="15">
         <v>9</v>
@@ -41694,13 +41697,13 @@
         <v>50</v>
       </c>
       <c r="E940" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F940" s="15" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G940" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H940" s="15">
         <v>10</v>
@@ -41733,13 +41736,13 @@
         <v>50</v>
       </c>
       <c r="E941" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F941" s="15" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G941" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H941" s="15">
         <v>10</v>
@@ -41772,13 +41775,13 @@
         <v>50</v>
       </c>
       <c r="E942" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F942" s="15" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G942" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H942" s="15">
         <v>10</v>
@@ -41811,13 +41814,13 @@
         <v>50</v>
       </c>
       <c r="E943" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F943" s="15" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G943" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H943" s="15">
         <v>10</v>
@@ -41850,13 +41853,13 @@
         <v>51</v>
       </c>
       <c r="E944" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F944" s="15" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G944" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H944" s="15">
         <v>10</v>
@@ -41889,13 +41892,13 @@
         <v>51</v>
       </c>
       <c r="E945" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F945" s="15" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G945" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H945" s="15">
         <v>10</v>
@@ -41928,13 +41931,13 @@
         <v>51</v>
       </c>
       <c r="E946" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F946" s="15" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G946" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H946" s="15">
         <v>10</v>
@@ -41967,13 +41970,13 @@
         <v>51</v>
       </c>
       <c r="E947" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F947" s="15" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G947" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H947" s="15">
         <v>10</v>
@@ -42006,13 +42009,13 @@
         <v>51</v>
       </c>
       <c r="E948" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F948" s="15" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G948" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H948" s="15">
         <v>10</v>
@@ -42045,13 +42048,13 @@
         <v>51</v>
       </c>
       <c r="E949" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F949" s="15" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G949" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H949" s="15">
         <v>10</v>
@@ -42084,13 +42087,13 @@
         <v>51</v>
       </c>
       <c r="E950" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F950" s="15" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G950" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H950" s="15">
         <v>10</v>
@@ -42123,13 +42126,13 @@
         <v>52</v>
       </c>
       <c r="E951" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F951" s="15" t="s">
         <v>323</v>
       </c>
       <c r="G951" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H951" s="15">
         <v>10</v>
@@ -42162,13 +42165,13 @@
         <v>52</v>
       </c>
       <c r="E952" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F952" s="15" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G952" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H952" s="15">
         <v>10</v>
@@ -42201,13 +42204,13 @@
         <v>52</v>
       </c>
       <c r="E953" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F953" s="15" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G953" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H953" s="15">
         <v>10</v>
@@ -42246,7 +42249,7 @@
         <v>1082</v>
       </c>
       <c r="G954" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H954" s="15">
         <v>10</v>
@@ -42282,10 +42285,10 @@
         <v>637</v>
       </c>
       <c r="F955" s="15" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G955" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H955" s="15">
         <v>10</v>
@@ -42321,10 +42324,10 @@
         <v>637</v>
       </c>
       <c r="F956" s="15" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G956" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H956" s="15">
         <v>10</v>
@@ -42357,13 +42360,13 @@
         <v>53</v>
       </c>
       <c r="E957" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F957" s="15" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G957" s="15" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H957" s="15">
         <v>10</v>
@@ -42396,13 +42399,13 @@
         <v>53</v>
       </c>
       <c r="E958" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F958" s="15" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G958" s="15" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H958" s="15">
         <v>10</v>
@@ -42435,13 +42438,13 @@
         <v>53</v>
       </c>
       <c r="E959" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F959" s="15" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G959" s="15" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H959" s="15">
         <v>10</v>
@@ -42474,13 +42477,13 @@
         <v>53</v>
       </c>
       <c r="E960" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F960" s="15" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G960" s="15" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H960" s="15">
         <v>10</v>
@@ -42513,13 +42516,13 @@
         <v>53</v>
       </c>
       <c r="E961" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F961" s="15" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G961" s="15" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H961" s="15">
         <v>10</v>
@@ -42552,13 +42555,13 @@
         <v>53</v>
       </c>
       <c r="E962" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F962" s="15" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G962" s="15" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H962" s="15">
         <v>10</v>
@@ -42591,13 +42594,13 @@
         <v>53</v>
       </c>
       <c r="E963" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F963" s="15" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G963" s="15" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H963" s="15">
         <v>10</v>
@@ -42630,13 +42633,13 @@
         <v>53</v>
       </c>
       <c r="E964" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F964" s="15" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G964" s="15" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H964" s="15">
         <v>10</v>
@@ -42672,10 +42675,10 @@
         <v>198</v>
       </c>
       <c r="F965" s="15" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G965" s="15" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H965" s="15">
         <v>10</v>
@@ -42711,10 +42714,10 @@
         <v>198</v>
       </c>
       <c r="F966" s="15" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G966" s="15" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H966" s="15">
         <v>10</v>
@@ -42753,7 +42756,7 @@
         <v>320</v>
       </c>
       <c r="G967" s="15" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H967" s="15">
         <v>10</v>
@@ -42789,7 +42792,7 @@
         <v>25</v>
       </c>
       <c r="F968" s="15" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G968" s="15" t="s">
         <v>408</v>
@@ -42818,17 +42821,17 @@
         <v>968</v>
       </c>
       <c r="C969" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D969" s="11">
         <f>_xlfn.XLOOKUP(E969,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E969" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F969" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G969" s="14" t="s">
         <v>168</v>
@@ -42857,17 +42860,17 @@
         <v>969</v>
       </c>
       <c r="C970" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D970" s="11">
         <f>_xlfn.XLOOKUP(E970,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E970" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G970" s="14" t="s">
         <v>168</v>
@@ -42896,20 +42899,20 @@
         <v>970</v>
       </c>
       <c r="C971" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D971" s="11">
         <f>_xlfn.XLOOKUP(E971,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E971" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F971" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G971" s="14" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H971" s="14">
         <v>10</v>
@@ -42935,20 +42938,20 @@
         <v>971</v>
       </c>
       <c r="C972" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D972" s="11">
         <f>_xlfn.XLOOKUP(E972,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E972" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F972" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G972" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H972" s="14">
         <v>10</v>
@@ -42974,20 +42977,20 @@
         <v>972</v>
       </c>
       <c r="C973" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D973" s="11">
         <f>_xlfn.XLOOKUP(E973,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E973" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F973" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G973" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H973" s="14">
         <v>10</v>
@@ -43013,20 +43016,20 @@
         <v>973</v>
       </c>
       <c r="C974" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D974" s="11">
         <f>_xlfn.XLOOKUP(E974,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E974" s="14" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F974" s="14" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G974" s="14" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H974" s="14">
         <v>10</v>
@@ -43059,13 +43062,13 @@
         <v>55</v>
       </c>
       <c r="E975" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F975" s="14" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="G975" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H975" s="14">
         <v>10</v>
@@ -43098,13 +43101,13 @@
         <v>55</v>
       </c>
       <c r="E976" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F976" s="14" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G976" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H976" s="14">
         <v>10</v>
@@ -43137,13 +43140,13 @@
         <v>55</v>
       </c>
       <c r="E977" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F977" s="14" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="G977" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H977" s="14">
         <v>10</v>
@@ -43176,13 +43179,13 @@
         <v>55</v>
       </c>
       <c r="E978" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F978" s="14" t="s">
         <v>1101</v>
       </c>
       <c r="G978" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H978" s="14">
         <v>10</v>
@@ -43215,13 +43218,13 @@
         <v>55</v>
       </c>
       <c r="E979" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F979" s="14" t="s">
         <v>765</v>
       </c>
       <c r="G979" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H979" s="14">
         <v>10</v>
@@ -43254,13 +43257,13 @@
         <v>55</v>
       </c>
       <c r="E980" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G980" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H980" s="14">
         <v>10</v>
@@ -43293,13 +43296,13 @@
         <v>55</v>
       </c>
       <c r="E981" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F981" s="14" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G981" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H981" s="14">
         <v>10</v>
@@ -43335,10 +43338,10 @@
         <v>28</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G982" s="14" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H982" s="14">
         <v>10</v>
@@ -43371,13 +43374,13 @@
         <v>52</v>
       </c>
       <c r="E983" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F983" s="15" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G983" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H983" s="15">
         <v>11</v>
@@ -43410,13 +43413,13 @@
         <v>52</v>
       </c>
       <c r="E984" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F984" s="15" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G984" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H984" s="15">
         <v>11</v>
@@ -43449,13 +43452,13 @@
         <v>52</v>
       </c>
       <c r="E985" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F985" s="15" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="G985" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H985" s="15">
         <v>11</v>
@@ -43491,10 +43494,10 @@
         <v>637</v>
       </c>
       <c r="F986" s="15" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G986" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H986" s="15">
         <v>11</v>
@@ -43530,10 +43533,10 @@
         <v>637</v>
       </c>
       <c r="F987" s="15" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G987" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H987" s="15">
         <v>11</v>
@@ -43566,13 +43569,13 @@
         <v>52</v>
       </c>
       <c r="E988" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F988" s="15" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G988" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H988" s="15">
         <v>12</v>
@@ -43611,7 +43614,7 @@
         <v>773</v>
       </c>
       <c r="G989" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H989" s="15">
         <v>12</v>
@@ -43647,10 +43650,10 @@
         <v>637</v>
       </c>
       <c r="F990" s="15" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G990" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H990" s="15">
         <v>12</v>
@@ -43683,13 +43686,13 @@
         <v>55</v>
       </c>
       <c r="E991" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F991" s="14" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G991" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H991" s="14">
         <v>12</v>
@@ -43722,13 +43725,13 @@
         <v>55</v>
       </c>
       <c r="E992" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F992" s="14" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G992" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H992" s="14">
         <v>12</v>
@@ -43761,13 +43764,13 @@
         <v>55</v>
       </c>
       <c r="E993" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F993" s="14" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G993" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H993" s="14">
         <v>12</v>
@@ -43803,10 +43806,10 @@
         <v>201</v>
       </c>
       <c r="F994" s="14" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G994" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H994" s="14">
         <v>12</v>
@@ -43839,13 +43842,13 @@
         <v>56</v>
       </c>
       <c r="E995" s="15" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F995" s="15" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G995" s="15" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H995" s="15">
         <v>13</v>
@@ -43878,13 +43881,13 @@
         <v>50</v>
       </c>
       <c r="E996" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F996" s="15" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G996" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H996" s="15">
         <v>14</v>
@@ -43917,13 +43920,13 @@
         <v>52</v>
       </c>
       <c r="E997" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F997" s="15" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G997" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H997" s="15">
         <v>14</v>
@@ -43956,13 +43959,13 @@
         <v>52</v>
       </c>
       <c r="E998" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F998" s="15" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="G998" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H998" s="15">
         <v>14</v>
@@ -44001,7 +44004,7 @@
         <v>819</v>
       </c>
       <c r="G999" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H999" s="15">
         <v>14</v>
@@ -44034,13 +44037,13 @@
         <v>50</v>
       </c>
       <c r="E1000" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1000" s="15" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G1000" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1000" s="15">
         <v>15</v>
@@ -44076,10 +44079,10 @@
         <v>12</v>
       </c>
       <c r="F1001" s="15" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G1001" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1001" s="15">
         <v>15</v>
@@ -44112,13 +44115,13 @@
         <v>52</v>
       </c>
       <c r="E1002" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1002" s="15" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G1002" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1002" s="15">
         <v>15</v>
@@ -44151,13 +44154,13 @@
         <v>52</v>
       </c>
       <c r="E1003" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1003" s="15" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G1003" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1003" s="15">
         <v>15</v>
@@ -44190,13 +44193,13 @@
         <v>51</v>
       </c>
       <c r="E1004" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1004" s="15" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="G1004" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1004" s="15">
         <v>15</v>
@@ -44232,10 +44235,10 @@
         <v>637</v>
       </c>
       <c r="F1005" s="15" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G1005" s="15" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1005" s="15">
         <v>15</v>
@@ -44268,13 +44271,13 @@
         <v>53</v>
       </c>
       <c r="E1006" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1006" s="15" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G1006" s="15" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1006" s="15">
         <v>15</v>
@@ -44310,7 +44313,7 @@
         <v>25</v>
       </c>
       <c r="F1007" s="15" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="G1007" s="15" t="s">
         <v>408</v>
@@ -44346,13 +44349,13 @@
         <v>55</v>
       </c>
       <c r="E1008" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1008" s="14" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G1008" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1008" s="14">
         <v>15</v>
@@ -44385,13 +44388,13 @@
         <v>55</v>
       </c>
       <c r="E1009" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1009" s="14" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G1009" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1009" s="14">
         <v>15</v>
@@ -44424,13 +44427,13 @@
         <v>55</v>
       </c>
       <c r="E1010" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1010" s="14" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="G1010" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1010" s="14">
         <v>15</v>
@@ -44466,10 +44469,10 @@
         <v>28</v>
       </c>
       <c r="F1011" s="14" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G1011" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1011" s="14">
         <v>15</v>
@@ -44502,13 +44505,13 @@
         <v>50</v>
       </c>
       <c r="E1012" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1012" s="15" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G1012" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1012" s="15">
         <v>16</v>
@@ -44541,13 +44544,13 @@
         <v>50</v>
       </c>
       <c r="E1013" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1013" s="15" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G1013" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1013" s="15">
         <v>16</v>
@@ -44580,13 +44583,13 @@
         <v>50</v>
       </c>
       <c r="E1014" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1014" s="15" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G1014" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1014" s="15">
         <v>16</v>
@@ -44619,13 +44622,13 @@
         <v>52</v>
       </c>
       <c r="E1015" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1015" s="15" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G1015" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1015" s="15">
         <v>16</v>
@@ -44658,13 +44661,13 @@
         <v>52</v>
       </c>
       <c r="E1016" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1016" s="15" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G1016" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1016" s="15">
         <v>16</v>
@@ -44700,7 +44703,7 @@
         <v>201</v>
       </c>
       <c r="F1017" s="14" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G1017" s="14" t="s">
         <v>441</v>
@@ -44736,13 +44739,13 @@
         <v>52</v>
       </c>
       <c r="E1018" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1018" s="15" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="G1018" s="15" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1018" s="15">
         <v>17</v>
@@ -44775,13 +44778,13 @@
         <v>53</v>
       </c>
       <c r="E1019" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1019" s="15" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G1019" s="15" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1019" s="15">
         <v>17</v>
@@ -44814,13 +44817,13 @@
         <v>50</v>
       </c>
       <c r="E1020" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1020" s="15" t="s">
         <v>897</v>
       </c>
       <c r="G1020" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1020" s="15">
         <v>18</v>
@@ -44853,13 +44856,13 @@
         <v>50</v>
       </c>
       <c r="E1021" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1021" s="15" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G1021" s="15" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1021" s="15">
         <v>18</v>
@@ -44892,13 +44895,13 @@
         <v>53</v>
       </c>
       <c r="E1022" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1022" s="15" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="G1022" s="15" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1022" s="15">
         <v>18</v>
@@ -44934,7 +44937,7 @@
         <v>35</v>
       </c>
       <c r="F1023" s="15" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G1023" s="15" t="s">
         <v>231</v>
@@ -44973,7 +44976,7 @@
         <v>204</v>
       </c>
       <c r="F1024" s="14" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G1024" s="14" t="s">
         <v>388</v>
@@ -45012,7 +45015,7 @@
         <v>204</v>
       </c>
       <c r="F1025" s="14" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G1025" s="14" t="s">
         <v>390</v>
@@ -45051,10 +45054,10 @@
         <v>28</v>
       </c>
       <c r="F1026" s="14" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="G1026" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1026" s="14">
         <v>18</v>
@@ -45087,13 +45090,13 @@
         <v>50</v>
       </c>
       <c r="E1027" s="15" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F1027" s="15" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G1027" s="15" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1027" s="15">
         <v>20</v>
@@ -45129,10 +45132,10 @@
         <v>12</v>
       </c>
       <c r="F1028" s="15" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G1028" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1028" s="15">
         <v>20</v>
@@ -45168,10 +45171,10 @@
         <v>12</v>
       </c>
       <c r="F1029" s="15" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G1029" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1029" s="15">
         <v>20</v>
@@ -45207,10 +45210,10 @@
         <v>12</v>
       </c>
       <c r="F1030" s="15" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G1030" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1030" s="15">
         <v>20</v>
@@ -45246,10 +45249,10 @@
         <v>12</v>
       </c>
       <c r="F1031" s="15" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G1031" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1031" s="15">
         <v>20</v>
@@ -45285,10 +45288,10 @@
         <v>12</v>
       </c>
       <c r="F1032" s="15" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G1032" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1032" s="15">
         <v>20</v>
@@ -45321,13 +45324,13 @@
         <v>51</v>
       </c>
       <c r="E1033" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1033" s="15" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G1033" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1033" s="15">
         <v>20</v>
@@ -45360,13 +45363,13 @@
         <v>51</v>
       </c>
       <c r="E1034" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1034" s="15" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G1034" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1034" s="15">
         <v>20</v>
@@ -45399,13 +45402,13 @@
         <v>51</v>
       </c>
       <c r="E1035" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1035" s="15" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G1035" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1035" s="15">
         <v>20</v>
@@ -45438,13 +45441,13 @@
         <v>51</v>
       </c>
       <c r="E1036" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1036" s="15" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G1036" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1036" s="15">
         <v>20</v>
@@ -45477,13 +45480,13 @@
         <v>51</v>
       </c>
       <c r="E1037" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1037" s="15" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G1037" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1037" s="15">
         <v>20</v>
@@ -45516,13 +45519,13 @@
         <v>51</v>
       </c>
       <c r="E1038" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1038" s="15" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G1038" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1038" s="15">
         <v>20</v>
@@ -45555,13 +45558,13 @@
         <v>51</v>
       </c>
       <c r="E1039" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1039" s="15" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G1039" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1039" s="15">
         <v>20</v>
@@ -45594,13 +45597,13 @@
         <v>51</v>
       </c>
       <c r="E1040" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1040" s="15" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G1040" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1040" s="15">
         <v>20</v>
@@ -45633,13 +45636,13 @@
         <v>53</v>
       </c>
       <c r="E1041" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1041" s="15" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G1041" s="15" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1041" s="15">
         <v>20</v>
@@ -45672,13 +45675,13 @@
         <v>53</v>
       </c>
       <c r="E1042" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1042" s="15" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G1042" s="15" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1042" s="15">
         <v>20</v>
@@ -45711,13 +45714,13 @@
         <v>55</v>
       </c>
       <c r="E1043" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1043" s="14" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G1043" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1043" s="14">
         <v>20</v>
@@ -45750,13 +45753,13 @@
         <v>55</v>
       </c>
       <c r="E1044" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1044" s="14" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G1044" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1044" s="14">
         <v>20</v>
@@ -45789,13 +45792,13 @@
         <v>55</v>
       </c>
       <c r="E1045" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1045" s="14" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G1045" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1045" s="14">
         <v>20</v>
@@ -45828,13 +45831,13 @@
         <v>55</v>
       </c>
       <c r="E1046" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1046" s="14" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G1046" s="14" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1046" s="14">
         <v>20</v>
@@ -45867,13 +45870,13 @@
         <v>55</v>
       </c>
       <c r="E1047" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1047" s="14" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G1047" s="14" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1047" s="14">
         <v>20</v>
@@ -45906,13 +45909,13 @@
         <v>55</v>
       </c>
       <c r="E1048" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1048" s="14" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G1048" s="14" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1048" s="14">
         <v>20</v>
@@ -45945,13 +45948,13 @@
         <v>55</v>
       </c>
       <c r="E1049" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1049" s="14" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G1049" s="14" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1049" s="14">
         <v>20</v>
@@ -45984,13 +45987,13 @@
         <v>55</v>
       </c>
       <c r="E1050" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1050" s="14" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G1050" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1050" s="14">
         <v>20</v>
@@ -46023,13 +46026,13 @@
         <v>55</v>
       </c>
       <c r="E1051" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1051" s="14" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G1051" s="14" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1051" s="14">
         <v>20</v>
@@ -46062,13 +46065,13 @@
         <v>55</v>
       </c>
       <c r="E1052" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1052" s="14" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G1052" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1052" s="14">
         <v>20</v>
@@ -46101,13 +46104,13 @@
         <v>55</v>
       </c>
       <c r="E1053" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1053" s="14" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G1053" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1053" s="14">
         <v>20</v>
@@ -46146,7 +46149,7 @@
         <v>1089</v>
       </c>
       <c r="G1054" s="14" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1054" s="14">
         <v>20</v>
@@ -46179,13 +46182,13 @@
         <v>56</v>
       </c>
       <c r="E1055" s="15" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F1055" s="15" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G1055" s="15" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1055" s="15">
         <v>21</v>
@@ -46218,13 +46221,13 @@
         <v>56</v>
       </c>
       <c r="E1056" s="15" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F1056" s="15" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G1056" s="15" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1056" s="15">
         <v>22</v>
@@ -46257,13 +46260,13 @@
         <v>55</v>
       </c>
       <c r="E1057" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1057" s="14" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G1057" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1057" s="14">
         <v>25</v>
@@ -46302,7 +46305,7 @@
         <v>825</v>
       </c>
       <c r="G1058" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1058" s="14">
         <v>25</v>
@@ -46335,13 +46338,13 @@
         <v>53</v>
       </c>
       <c r="E1059" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1059" s="15" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G1059" s="15" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1059" s="15">
         <v>30</v>
@@ -46374,13 +46377,13 @@
         <v>55</v>
       </c>
       <c r="E1060" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1060" s="14" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G1060" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1060" s="14">
         <v>30</v>
@@ -46416,10 +46419,10 @@
         <v>28</v>
       </c>
       <c r="F1061" s="14" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G1061" s="14" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1061" s="14">
         <v>30</v>
@@ -46455,10 +46458,10 @@
         <v>12</v>
       </c>
       <c r="F1062" s="15" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G1062" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1062" s="15">
         <v>35</v>
@@ -46491,13 +46494,13 @@
         <v>55</v>
       </c>
       <c r="E1063" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1063" s="14" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G1063" s="14" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1063" s="14">
         <v>35</v>
@@ -46530,13 +46533,13 @@
         <v>53</v>
       </c>
       <c r="E1064" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1064" s="15" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G1064" s="15" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1064" s="15">
         <v>40</v>
@@ -46569,13 +46572,13 @@
         <v>53</v>
       </c>
       <c r="E1065" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1065" s="15" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G1065" s="15" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1065" s="15">
         <v>40</v>
@@ -46608,13 +46611,13 @@
         <v>55</v>
       </c>
       <c r="E1066" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1066" s="14" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G1066" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1066" s="14">
         <v>40</v>
@@ -46647,13 +46650,13 @@
         <v>55</v>
       </c>
       <c r="E1067" s="14" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F1067" s="14" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G1067" s="14" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1067" s="14">
         <v>40</v>
@@ -46692,7 +46695,7 @@
         <v>991</v>
       </c>
       <c r="G1068" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1068" s="15">
         <v>50</v>
@@ -46728,10 +46731,10 @@
         <v>12</v>
       </c>
       <c r="F1069" s="15" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G1069" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1069" s="15">
         <v>50</v>
@@ -46767,10 +46770,10 @@
         <v>12</v>
       </c>
       <c r="F1070" s="15" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G1070" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1070" s="15">
         <v>50</v>
@@ -46806,7 +46809,7 @@
         <v>35</v>
       </c>
       <c r="F1071" s="15" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G1071" s="15" t="s">
         <v>59</v>
@@ -46845,10 +46848,10 @@
         <v>12</v>
       </c>
       <c r="F1072" s="15" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G1072" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1072" s="15">
         <v>60</v>
@@ -46881,13 +46884,13 @@
         <v>53</v>
       </c>
       <c r="E1073" s="15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F1073" s="15" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G1073" s="15" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1073" s="15">
         <v>60</v>
@@ -46920,13 +46923,13 @@
         <v>51</v>
       </c>
       <c r="E1074" s="15" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F1074" s="15" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G1074" s="15" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1074" s="15">
         <v>0</v>
@@ -46959,13 +46962,13 @@
         <v>52</v>
       </c>
       <c r="E1075" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1075" s="15" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G1075" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1075" s="15">
         <v>8</v>
@@ -46998,13 +47001,13 @@
         <v>52</v>
       </c>
       <c r="E1076" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1076" s="15" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G1076" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1076" s="15">
         <v>45</v>
@@ -47037,13 +47040,13 @@
         <v>52</v>
       </c>
       <c r="E1077" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1077" s="15" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G1077" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1077" s="15">
         <v>45</v>
@@ -47076,13 +47079,13 @@
         <v>52</v>
       </c>
       <c r="E1078" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1078" s="15" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G1078" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1078" s="15">
         <v>32</v>
@@ -47115,13 +47118,13 @@
         <v>52</v>
       </c>
       <c r="E1079" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1079" s="15" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G1079" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1079" s="15">
         <v>47</v>
@@ -47154,13 +47157,13 @@
         <v>52</v>
       </c>
       <c r="E1080" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1080" s="15" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G1080" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1080" s="15">
         <v>30</v>
@@ -47193,13 +47196,13 @@
         <v>52</v>
       </c>
       <c r="E1081" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1081" s="15" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G1081" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1081" s="15">
         <v>10</v>
@@ -47232,13 +47235,13 @@
         <v>52</v>
       </c>
       <c r="E1082" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1082" s="15" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G1082" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1082" s="15">
         <v>28</v>
@@ -47271,13 +47274,13 @@
         <v>52</v>
       </c>
       <c r="E1083" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1083" s="15" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G1083" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1083" s="15">
         <v>31</v>
@@ -47310,13 +47313,13 @@
         <v>52</v>
       </c>
       <c r="E1084" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1084" s="15" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G1084" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1084" s="15">
         <v>8</v>
@@ -47349,13 +47352,13 @@
         <v>52</v>
       </c>
       <c r="E1085" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1085" s="15" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G1085" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1085" s="15">
         <v>7</v>
@@ -47388,13 +47391,13 @@
         <v>52</v>
       </c>
       <c r="E1086" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1086" s="15" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G1086" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1086" s="15">
         <v>28</v>
@@ -47427,13 +47430,13 @@
         <v>52</v>
       </c>
       <c r="E1087" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1087" s="15" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G1087" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1087" s="15">
         <v>20</v>
@@ -47466,13 +47469,13 @@
         <v>52</v>
       </c>
       <c r="E1088" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1088" s="15" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G1088" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1088" s="15">
         <v>9</v>
@@ -47505,13 +47508,13 @@
         <v>52</v>
       </c>
       <c r="E1089" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1089" s="15" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G1089" s="15" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1089" s="15">
         <v>23</v>
@@ -47544,13 +47547,13 @@
         <v>52</v>
       </c>
       <c r="E1090" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1090" s="15" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G1090" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1090" s="15">
         <v>18</v>
@@ -47583,13 +47586,13 @@
         <v>52</v>
       </c>
       <c r="E1091" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1091" s="15" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G1091" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1091" s="15">
         <v>18</v>
@@ -47622,13 +47625,13 @@
         <v>52</v>
       </c>
       <c r="E1092" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1092" s="15" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G1092" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1092" s="15">
         <v>8</v>
@@ -47661,13 +47664,13 @@
         <v>52</v>
       </c>
       <c r="E1093" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1093" s="15" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G1093" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1093" s="15">
         <v>7</v>
@@ -47700,13 +47703,13 @@
         <v>52</v>
       </c>
       <c r="E1094" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1094" s="15" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G1094" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1094" s="15">
         <v>9</v>
@@ -47739,13 +47742,13 @@
         <v>52</v>
       </c>
       <c r="E1095" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1095" s="15" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G1095" s="15" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1095" s="15">
         <v>9</v>
@@ -47778,13 +47781,13 @@
         <v>52</v>
       </c>
       <c r="E1096" s="15" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F1096" s="15" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G1096" s="15" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1096" s="15">
         <v>34</v>
@@ -47820,10 +47823,10 @@
         <v>25</v>
       </c>
       <c r="F1097" s="15" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G1097" s="15" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1097" s="15">
         <v>10</v>
@@ -47859,10 +47862,10 @@
         <v>25</v>
       </c>
       <c r="F1098" s="15" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G1098" s="15" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1098" s="15">
         <v>30</v>
@@ -47898,10 +47901,10 @@
         <v>25</v>
       </c>
       <c r="F1099" s="15" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G1099" s="15" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1099" s="15">
         <v>10</v>
@@ -47937,10 +47940,10 @@
         <v>25</v>
       </c>
       <c r="F1100" s="15" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G1100" s="15" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1100" s="15">
         <v>10</v>
@@ -47976,10 +47979,10 @@
         <v>25</v>
       </c>
       <c r="F1101" s="15" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G1101" s="15" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1101" s="15">
         <v>10</v>
@@ -48015,10 +48018,10 @@
         <v>25</v>
       </c>
       <c r="F1102" s="15" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G1102" s="15" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1102" s="15">
         <v>30</v>
@@ -48054,10 +48057,10 @@
         <v>25</v>
       </c>
       <c r="F1103" s="15" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G1103" s="15" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1103" s="15">
         <v>57</v>
@@ -48093,10 +48096,10 @@
         <v>12</v>
       </c>
       <c r="F1104" s="15" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G1104" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1104" s="15">
         <v>8</v>
@@ -48135,7 +48138,7 @@
         <v>66</v>
       </c>
       <c r="G1105" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1105" s="15">
         <v>21</v>
@@ -48174,7 +48177,7 @@
         <v>67</v>
       </c>
       <c r="G1106" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1106" s="15">
         <v>15</v>
@@ -48210,10 +48213,10 @@
         <v>12</v>
       </c>
       <c r="F1107" s="15" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G1107" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1107" s="15">
         <v>14</v>
@@ -48249,10 +48252,10 @@
         <v>12</v>
       </c>
       <c r="F1108" s="15" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G1108" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1108" s="15">
         <v>20</v>
@@ -48291,7 +48294,7 @@
         <v>106</v>
       </c>
       <c r="G1109" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1109" s="15">
         <v>25</v>
@@ -48327,10 +48330,10 @@
         <v>12</v>
       </c>
       <c r="F1110" s="15" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G1110" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1110" s="15">
         <v>41</v>
@@ -48366,10 +48369,10 @@
         <v>12</v>
       </c>
       <c r="F1111" s="15" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G1111" s="15" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1111" s="15">
         <v>11</v>
@@ -48408,7 +48411,7 @@
         <v>197</v>
       </c>
       <c r="G1112" s="15" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1112" s="15">
         <v>23</v>
@@ -48444,10 +48447,10 @@
         <v>35</v>
       </c>
       <c r="F1113" s="15" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G1113" s="15" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1113" s="15">
         <v>45</v>
@@ -48483,10 +48486,10 @@
         <v>35</v>
       </c>
       <c r="F1114" s="15" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G1114" s="15" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1114" s="15">
         <v>12</v>
@@ -48522,7 +48525,7 @@
         <v>40</v>
       </c>
       <c r="F1115" s="14" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G1115" s="14" t="s">
         <v>342</v>
@@ -48561,10 +48564,10 @@
         <v>40</v>
       </c>
       <c r="F1116" s="14" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G1116" s="14" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1116" s="14">
         <v>20</v>
@@ -48600,7 +48603,7 @@
         <v>40</v>
       </c>
       <c r="F1117" s="14" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G1117" s="14" t="s">
         <v>342</v>
@@ -48639,7 +48642,7 @@
         <v>40</v>
       </c>
       <c r="F1118" s="14" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G1118" s="14" t="s">
         <v>42</v>
@@ -48678,7 +48681,7 @@
         <v>40</v>
       </c>
       <c r="F1119" s="14" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G1119" s="14" t="s">
         <v>42</v>
@@ -48746,20 +48749,20 @@
         <v>1120</v>
       </c>
       <c r="C1121" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1121" s="11">
         <f>_xlfn.XLOOKUP(E1121,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1121" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1121" s="13" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G1121" s="13" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1121" s="13">
         <v>40</v>
@@ -48785,20 +48788,20 @@
         <v>1121</v>
       </c>
       <c r="C1122" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1122" s="11">
         <f>_xlfn.XLOOKUP(E1122,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1122" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1122" s="13" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G1122" s="13" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1122" s="13">
         <v>40</v>
@@ -48824,20 +48827,20 @@
         <v>1122</v>
       </c>
       <c r="C1123" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1123" s="11">
         <f>_xlfn.XLOOKUP(E1123,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1123" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1123" s="13" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G1123" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1123" s="13">
         <v>40</v>
@@ -48863,20 +48866,20 @@
         <v>1123</v>
       </c>
       <c r="C1124" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1124" s="11">
         <f>_xlfn.XLOOKUP(E1124,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1124" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1124" s="13" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G1124" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1124" s="13">
         <v>30</v>
@@ -48902,20 +48905,20 @@
         <v>1124</v>
       </c>
       <c r="C1125" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1125" s="11">
         <f>_xlfn.XLOOKUP(E1125,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1125" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1125" s="13" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G1125" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1125" s="13">
         <v>30</v>
@@ -48941,20 +48944,20 @@
         <v>1125</v>
       </c>
       <c r="C1126" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1126" s="11">
         <f>_xlfn.XLOOKUP(E1126,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1126" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1126" s="13" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G1126" s="13" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1126" s="13">
         <v>20</v>
@@ -48980,7 +48983,7 @@
         <v>1126</v>
       </c>
       <c r="C1127" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1127" s="11">
         <f>_xlfn.XLOOKUP(E1127,DB!E:E,DB!C:C,)</f>
@@ -48990,10 +48993,10 @@
         <v>161</v>
       </c>
       <c r="F1127" s="13" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G1127" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1127" s="13">
         <v>20</v>
@@ -49019,7 +49022,7 @@
         <v>1127</v>
       </c>
       <c r="C1128" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1128" s="11">
         <f>_xlfn.XLOOKUP(E1128,DB!E:E,DB!C:C,)</f>
@@ -49029,10 +49032,10 @@
         <v>161</v>
       </c>
       <c r="F1128" s="13" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G1128" s="13" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1128" s="13">
         <v>20</v>
@@ -49058,7 +49061,7 @@
         <v>1128</v>
       </c>
       <c r="C1129" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1129" s="11">
         <f>_xlfn.XLOOKUP(E1129,DB!E:E,DB!C:C,)</f>
@@ -49071,7 +49074,7 @@
         <v>556</v>
       </c>
       <c r="G1129" s="13" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1129" s="13">
         <v>20</v>
@@ -49097,20 +49100,20 @@
         <v>1129</v>
       </c>
       <c r="C1130" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1130" s="11">
         <f>_xlfn.XLOOKUP(E1130,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1130" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1130" s="13" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G1130" s="13" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1130" s="13">
         <v>20</v>
@@ -49136,20 +49139,20 @@
         <v>1130</v>
       </c>
       <c r="C1131" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1131" s="11">
         <f>_xlfn.XLOOKUP(E1131,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1131" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1131" s="13" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G1131" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1131" s="13">
         <v>15</v>
@@ -49175,20 +49178,20 @@
         <v>1131</v>
       </c>
       <c r="C1132" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1132" s="11">
         <f>_xlfn.XLOOKUP(E1132,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1132" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1132" s="13" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G1132" s="13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1132" s="13">
         <v>8</v>
@@ -49214,7 +49217,7 @@
         <v>1132</v>
       </c>
       <c r="C1133" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1133" s="11">
         <f>_xlfn.XLOOKUP(E1133,DB!E:E,DB!C:C,)</f>
@@ -49224,10 +49227,10 @@
         <v>161</v>
       </c>
       <c r="F1133" s="14" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G1133" s="16" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1133" s="16">
         <v>10</v>
@@ -49253,7 +49256,7 @@
         <v>1133</v>
       </c>
       <c r="C1134" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1134" s="11">
         <f>_xlfn.XLOOKUP(E1134,DB!E:E,DB!C:C,)</f>
@@ -49263,10 +49266,10 @@
         <v>161</v>
       </c>
       <c r="F1134" s="14" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G1134" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1134" s="13">
         <v>10</v>
@@ -49292,7 +49295,7 @@
         <v>1134</v>
       </c>
       <c r="C1135" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1135" s="11">
         <f>_xlfn.XLOOKUP(E1135,DB!E:E,DB!C:C,)</f>
@@ -49302,10 +49305,10 @@
         <v>161</v>
       </c>
       <c r="F1135" s="14" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G1135" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1135" s="13">
         <v>10</v>
@@ -49331,7 +49334,7 @@
         <v>1135</v>
       </c>
       <c r="C1136" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1136" s="11">
         <f>_xlfn.XLOOKUP(E1136,DB!E:E,DB!C:C,)</f>
@@ -49341,10 +49344,10 @@
         <v>161</v>
       </c>
       <c r="F1136" s="14" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G1136" s="14" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1136" s="14">
         <v>10</v>
@@ -49370,20 +49373,20 @@
         <v>1136</v>
       </c>
       <c r="C1137" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1137" s="11">
         <f>_xlfn.XLOOKUP(E1137,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1137" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1137" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G1137" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1137" s="14">
         <v>10</v>
@@ -49409,20 +49412,20 @@
         <v>1137</v>
       </c>
       <c r="C1138" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1138" s="11">
         <f>_xlfn.XLOOKUP(E1138,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1138" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1138" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G1138" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1138" s="14">
         <v>10</v>
@@ -49448,7 +49451,7 @@
         <v>1138</v>
       </c>
       <c r="C1139" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1139" s="11">
         <f>_xlfn.XLOOKUP(E1139,DB!E:E,DB!C:C,)</f>
@@ -49458,10 +49461,10 @@
         <v>161</v>
       </c>
       <c r="F1139" s="14" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G1139" s="14" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1139" s="14">
         <v>10</v>
@@ -49487,7 +49490,7 @@
         <v>1139</v>
       </c>
       <c r="C1140" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1140" s="11">
         <f>_xlfn.XLOOKUP(E1140,DB!E:E,DB!C:C,)</f>
@@ -49497,10 +49500,10 @@
         <v>161</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G1140" s="14" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1140" s="14">
         <v>10</v>
@@ -49526,20 +49529,20 @@
         <v>1140</v>
       </c>
       <c r="C1141" s="13" t="s">
-        <v>21</v>
+        <v>1210</v>
       </c>
       <c r="D1141" s="11">
         <f>_xlfn.XLOOKUP(E1141,DB!E:E,DB!C:C,)</f>
         <v>54</v>
       </c>
       <c r="E1141" s="13" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F1141" s="14" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G1141" s="14" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1141" s="14">
         <v>40</v>
@@ -49557,7 +49560,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1141" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
@@ -49574,7 +49577,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -49589,7 +49592,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -50092,7 +50095,7 @@
       </c>
       <c r="B23" t="str">
         <f>_xlfn.XLOOKUP(E23,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -50747,7 +50750,7 @@
         <v>SIDDHIVINAYAK_ENTERPRISES</v>
       </c>
       <c r="E51" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F51" s="6">
         <v>4840</v>
@@ -50771,7 +50774,7 @@
         <v>AASHA_PURA_SALES</v>
       </c>
       <c r="E52" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F52" s="6">
         <v>2033</v>
@@ -50794,7 +50797,7 @@
         <v>DIVYA_AGENCY</v>
       </c>
       <c r="E53" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F53" s="6">
         <v>5185</v>
@@ -50817,7 +50820,7 @@
         <v>ALISHAN_TRADERS</v>
       </c>
       <c r="E54" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F54" s="6">
         <v>1684</v>
@@ -50829,7 +50832,7 @@
       </c>
       <c r="B55" t="str">
         <f>_xlfn.XLOOKUP(E55,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -50840,7 +50843,7 @@
         <v>BALWANT_&amp;_CO</v>
       </c>
       <c r="E55" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F55" s="6">
         <v>5694</v>
@@ -50863,7 +50866,7 @@
         <v>MOINRAJA_ENT</v>
       </c>
       <c r="E56" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F56" s="6">
         <v>7181</v>
@@ -50886,7 +50889,7 @@
         <v>SHREE_MURGAN_AGENCY</v>
       </c>
       <c r="E57" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F57" s="6">
         <v>3515</v>
@@ -50921,7 +50924,7 @@
       </c>
       <c r="B59" t="str">
         <f>_xlfn.XLOOKUP(E59,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -51009,7 +51012,7 @@
       </c>
       <c r="B63" t="str">
         <f>_xlfn.XLOOKUP(E63,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -51053,7 +51056,7 @@
       </c>
       <c r="B65" t="str">
         <f>_xlfn.XLOOKUP(E65,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -51063,7 +51066,7 @@
         <v>BHAGAWATI_ENTERPRISES</v>
       </c>
       <c r="E65" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F65" s="6">
         <v>8470</v>
@@ -51075,7 +51078,7 @@
       </c>
       <c r="B66" t="str">
         <f>_xlfn.XLOOKUP(E66,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -51085,7 +51088,7 @@
         <v>GAJANAN_GRAIN_STORES</v>
       </c>
       <c r="E66" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F66" s="6">
         <v>5527</v>
@@ -51097,7 +51100,7 @@
       </c>
       <c r="B67" t="str">
         <f>_xlfn.XLOOKUP(E67,data!E:E,data!C:C,0)</f>
-        <v>J K BROTHERS</v>
+        <v xml:space="preserve">J K BROS </v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -51107,7 +51110,7 @@
         <v>SHREE_RAM_AGENCY</v>
       </c>
       <c r="E67" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F67" s="6">
         <v>1022</v>
